--- a/biology/Botanique/Tillandsia_exaltata/Tillandsia_exaltata.xlsx
+++ b/biology/Botanique/Tillandsia_exaltata/Tillandsia_exaltata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia exaltata Mez est une plante de la famille des Bromeliaceae.
 L'épithète exaltata signifie « élevée » et est en rapport avec la haute tige florale.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia exaltata Mez in C.DC., Monogr. Phan. 9: 766, n° 121 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « statura maxima; foliis rosulatis, subglabris ; inflorescentia amplissime tripinnalim panniculata[sic] ; spicis +/- 7-floris, flabellatis, circuitu sublanceolatis ; bracteolis florigeris acute carinatis, sepala manifeste superantibus; floribus erectis; sepalis antico libero, posticis binis ad 1 mm. connatis; petalis albis, stamina manifeste superantibus; stylo quam stamina paullo breviore. »
 Type :
-leg. F.C. Lehmann, n° XXV ; « Columbiae prov. Antioquia, prope Amalfi in silvis densis, alt. 1600-2000 m. » ; Holotypus Herb. Boiss.-Barbey[1].
+leg. F.C. Lehmann, n° XXV ; « Columbiae prov. Antioquia, prope Amalfi in silvis densis, alt. 1600-2000 m. » ; Holotypus Herb. Boiss.-Barbey.
 leg. Lehmann, n° XXV, 1884-09-23 ; « Land Antioquia, Kolombien. 1600 -2000 m. » ; Isotypus US National Herbarium (US 00089188)</t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Synonymie nomenclaturale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -577,9 +593,11 @@
           <t>Synonymie taxonomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tillandsia excelsa Wittm. non Baker[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia excelsa Wittm. non Baker</t>
         </is>
       </c>
     </row>
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,11 +653,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1] ou terrestre[1].
-Habitat : forêts denses[1].
-Altitude : 1600-2000 m[1].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte ou terrestre.
+Habitat : forêts denses.
+Altitude : 1600-2000 m.</t>
         </is>
       </c>
     </row>
@@ -665,11 +687,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Colombie
-Antioquia[1]</t>
+Antioquia</t>
         </is>
       </c>
     </row>
@@ -698,6 +722,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
